--- a/medicine/Enfance/Martine_(série)/Martine_(série).xlsx
+++ b/medicine/Enfance/Martine_(série)/Martine_(série).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Martine_(s%C3%A9rie)</t>
+          <t>Martine_(série)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Martine est l'héroïne éponyme d'une série de soixante albums pour enfants, publiés entre 1954 et 2010, presque au rythme d'un par an, par l'éditeur belge Casterman.
-Martine, l'héroïne, est une petite fille d'une dizaine d'années qui vit des « aventures » simples ancrées dans le quotidien. Phénomène de l'édition, une centaine de millions d'exemplaires d'albums de la série, dont plus d'un quart en langues étrangères, se sont vendus dans une trentaine de pays[1],[2]. Dans ces différentes langues, la petite héroïne a, le plus souvent, un autre prénom : Anita, Tiny, Debbie, Maja, Marika, Mary, Steffi, etc.
-Les histoires, écrites par Gilbert Delahaye (1923-1997) puis, après la mort de celui-ci, par Jean-Louis Marlier (1963-2019), sont illustrées par Marcel Marlier (1930-2011), père de Jean-Louis. La série prend fin avec la mort de son dessinateur, les albums existants continuant néanmoins à être publiés[3].
+Martine, l'héroïne, est une petite fille d'une dizaine d'années qui vit des « aventures » simples ancrées dans le quotidien. Phénomène de l'édition, une centaine de millions d'exemplaires d'albums de la série, dont plus d'un quart en langues étrangères, se sont vendus dans une trentaine de pays,. Dans ces différentes langues, la petite héroïne a, le plus souvent, un autre prénom : Anita, Tiny, Debbie, Maja, Marika, Mary, Steffi, etc.
+Les histoires, écrites par Gilbert Delahaye (1923-1997) puis, après la mort de celui-ci, par Jean-Louis Marlier (1963-2019), sont illustrées par Marcel Marlier (1930-2011), père de Jean-Louis. La série prend fin avec la mort de son dessinateur, les albums existants continuant néanmoins à être publiés.
 À partir de 2021 paraissent annuellement des Martine, sous forme d'albums mélangeant dessins et photographies actuelles.
 </t>
         </is>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Martine_(s%C3%A9rie)</t>
+          <t>Martine_(série)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,85 +529,196 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Thème
-Avec ses frères Jean et Alain, son amie Nicole, ses amis, son chien Patapouf et le chat Moustache[4], Martine, petite fille âgée d'une dizaine d'années, vit des « aventures » qui restent en fait ancrées dans le quotidien. La plupart des albums présentent une activité : Martine va à la ferme, à la mer, à la montagne, au cirque, au zoo ; elle «fait » la cuisine, de la voile, de l'équitation, de la danse, du théâtre, etc. ; ou est confrontée à un événement relativement marquant de la vie enfantine : un déménagement, une hospitalisation, la naissance d'un petit frère...
-Genèse
-Depuis le premier album Martine à la ferme, publié par Casterman en 1954 dans la collection Farandole, Martine est devenue un véritable phénomène de l'édition pour la jeunesse.
+          <t>Thème</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec ses frères Jean et Alain, son amie Nicole, ses amis, son chien Patapouf et le chat Moustache, Martine, petite fille âgée d'une dizaine d'années, vit des « aventures » qui restent en fait ancrées dans le quotidien. La plupart des albums présentent une activité : Martine va à la ferme, à la mer, à la montagne, au cirque, au zoo ; elle «fait » la cuisine, de la voile, de l'équitation, de la danse, du théâtre, etc. ; ou est confrontée à un événement relativement marquant de la vie enfantine : un déménagement, une hospitalisation, la naissance d'un petit frère...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Martine_(série)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martine_(s%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Présentation de la série</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genèse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis le premier album Martine à la ferme, publié par Casterman en 1954 dans la collection Farandole, Martine est devenue un véritable phénomène de l'édition pour la jeunesse.
 Gilbert Delahaye travaille alors aux éditions Casterman. Son directeur, apprenant qu'il est l'auteur de poésies et d'histoires pour enfants, lui demande d'imaginer les aventures d'une petite fille. C'est ainsi qu'à trente ans, il écrit Martine à la ferme.
 Pour illustrer l'histoire, on fait appel à Marcel Marlier. À vingt-trois ans, il a déjà illustré plusieurs ouvrages. Il habite Tournai, en Belgique, où se trouve justement le siège des éditions Casterman. C'est là qu'il reçoit le texte de Martine à la ferme écrit par Gilbert Delahaye.
 Dès sa parution, l'album connaît un succès immédiat[pourquoi ?] et les aventures de Martine sont connues dans le monde entier.
 Depuis l'an 2000, Casterman édite des fac-similés des titres de la série parus dans la collection Farandole (ont paru les dix-sept premiers titres).
-Illustrations
-Les illustrations, qui ont fait le succès de la série, ont évolué au fil des années mais, d'une façon générale, sont d'un réalisme plutôt naïf. Le dessin est détaillé, les lumières sont flatteuses, les couleurs pastel. Un grand soin est apporté aux décors, aux tenues des personnages et surtout aux expressions de ceux-ci.
-La première petite fille à servir de modèle à Martine est Marie-Paule Caes, âgée alors de 6 ans, dont les parents étaient des amis de Gilbert Delahaye, qui résidait alors dans le même village, Herseaux[5]. Depuis 1976, Marie-Paule Caes vit en France sur la côte vendéenne à Saint-Hilaire-de-Riez.
-La série témoigne d'un certain idéal des années 1950, 1960 et 1970. À partir des années 1980, la série devient beaucoup moins représentative de son époque. Dans les années 1980, des critiques la présentaient comme une œuvre rétrograde ou sexiste, mettant en scène un univers bourgeois dans ses préoccupations[6].[source insuffisante] La série demeure pourtant un « classique » de l'édition jeunesse.
-En 2003, une rétrospective, Martine. Marcel Marlier, s'est tenue au festival de Blois[7].
-En 2021 et 2022 paraissent les 61e et 62e albums, Martine au Louvre et Martine au château de Versailles, mélangeant dessins et photographies actuelles[8]. Sur le même principe (mélange de dessins tirés des 60 aventures écrites par les auteurs agrémentant des photographies actuelles) paraît en mai 2023 Martine en Bretagne, le 63e album.
-Albums
-[1] - Martine à la ferme (1954)[9]
-[2] - Martine en voyage (1954)
-[3] - Martine à la mer (1956)
-[4] - Martine au cirque (1956)
-[5] - Martine, vive la rentrée! (1957)
-[6] - Martine à l’école (1957)
-[7] - Martine à la foire (1958)
-[8] - Martine fait du théâtre (1959)
-[9] - Martine à la montagne (1959)
-[10] - Martine fait du camping (1960)
-[11] - Martine en bateau (1961)
-[12] - Martine et les 4 saisons (1962)
-[13] - Martine à la maison (1963)
-[14] - Martine au zoo (1963)
-[15] - Martine fait ses courses (1964)
-[16] - Martine en avion (1965)
-[17] - Martine monte à cheval (1966)
-[18] - Martine au parc (1967)
-[19] - Martine petite maman (1968)
-[20] - Martine fête son anniversaire (1969)
-[21] - Martine embellit son jardin (1970)
-[22] - Martine fait de la bicyclette (1971)
-[23] - Martine petit rat de l'opéra (1972)[10].
-[24] - Martine à la fête des fleurs (1973)
-[25] - Martine fait la cuisine (1974)
-[26] - Martine apprend à nager (1975)
-[27] - Martine est malade (1976)
-[28] - Martine chez tante Lucie (1977)
-[29] - Martine prend le train (1978)
-[30] - Martine fait de la voile (1979)
-[31] - Martine et son ami le moineau (1980)
-[32] - Martine et l'âne Cadichon (1981)
-[33] - Martine fête maman (1982)
-[34] - Martine en montgolfière (1983)
-[35] - Martine découvre la musique (1985)
-[36] - Martine a perdu son chien (1986)
-[37] - Martine dans la forêt (1987)
-[38] - Martine et le cadeau d'anniversaire (1988)
-[39] - Martine a une étrange voisine (1989)
-[40] - Martine, un mercredi pas comme les autres (1990)
-[41] - Martine, la nuit de Noël (1991)
-[42] - Martine va déménager (1992)
-[43] - Martine se déguise (1993)
-[44] - Martine et le chaton vagabond (1994)
-[45] - Martine, il court, il court, le furet ! (1995)
-[46] - Martine, l'accident (1996)
-[47] - Martine baby-sitter (1997)
-[48] - Martine en classe de découverte (1998)
-[49] - Martine, la leçon de dessin (1999)
-[50] - Martine au pays des contes (2000)
-[51] - Martine et les marmitons (2001)
-[52] - Martine, la surprise (2002)
-[53] - Martine, l'arche de Noé (2003)
-[54] - Martine, princesses et chevaliers (2004)
-[55] - Martine, drôles de fantômes ! (2005)
-[56] - Martine, un amour de poney (2006)
-[57] - Martine, j’adore mon frère (2007)
-[58] - Martine et un chien du tonnerre (2008)
-[59] - Martine protège la nature (2009)
-[60] - Martine et le prince mystérieux (2010)
-[61] - Martine au Louvre (2021)
-[62] - Martine au château de Versailles (2022)
-[63] - Martine en Bretagne (2023)
-[64] - Martine à Paris (2024)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Martine_(série)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martine_(s%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Présentation de la série</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les illustrations, qui ont fait le succès de la série, ont évolué au fil des années mais, d'une façon générale, sont d'un réalisme plutôt naïf. Le dessin est détaillé, les lumières sont flatteuses, les couleurs pastel. Un grand soin est apporté aux décors, aux tenues des personnages et surtout aux expressions de ceux-ci.
+La première petite fille à servir de modèle à Martine est Marie-Paule Caes, âgée alors de 6 ans, dont les parents étaient des amis de Gilbert Delahaye, qui résidait alors dans le même village, Herseaux. Depuis 1976, Marie-Paule Caes vit en France sur la côte vendéenne à Saint-Hilaire-de-Riez.
+La série témoigne d'un certain idéal des années 1950, 1960 et 1970. À partir des années 1980, la série devient beaucoup moins représentative de son époque. Dans les années 1980, des critiques la présentaient comme une œuvre rétrograde ou sexiste, mettant en scène un univers bourgeois dans ses préoccupations.[source insuffisante] La série demeure pourtant un « classique » de l'édition jeunesse.
+En 2003, une rétrospective, Martine. Marcel Marlier, s'est tenue au festival de Blois.
+En 2021 et 2022 paraissent les 61e et 62e albums, Martine au Louvre et Martine au château de Versailles, mélangeant dessins et photographies actuelles. Sur le même principe (mélange de dessins tirés des 60 aventures écrites par les auteurs agrémentant des photographies actuelles) paraît en mai 2023 Martine en Bretagne, le 63e album.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Martine_(série)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martine_(s%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Présentation de la série</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ - Martine à la ferme (1954)
+ - Martine en voyage (1954)
+ - Martine à la mer (1956)
+ - Martine au cirque (1956)
+ - Martine, vive la rentrée! (1957)
+ - Martine à l’école (1957)
+ - Martine à la foire (1958)
+ - Martine fait du théâtre (1959)
+ - Martine à la montagne (1959)
+ - Martine fait du camping (1960)
+ - Martine en bateau (1961)
+ - Martine et les 4 saisons (1962)
+ - Martine à la maison (1963)
+ - Martine au zoo (1963)
+ - Martine fait ses courses (1964)
+ - Martine en avion (1965)
+ - Martine monte à cheval (1966)
+ - Martine au parc (1967)
+ - Martine petite maman (1968)
+ - Martine fête son anniversaire (1969)
+ - Martine embellit son jardin (1970)
+ - Martine fait de la bicyclette (1971)
+ - Martine petit rat de l'opéra (1972).
+ - Martine à la fête des fleurs (1973)
+ - Martine fait la cuisine (1974)
+ - Martine apprend à nager (1975)
+ - Martine est malade (1976)
+ - Martine chez tante Lucie (1977)
+ - Martine prend le train (1978)
+ - Martine fait de la voile (1979)
+ - Martine et son ami le moineau (1980)
+ - Martine et l'âne Cadichon (1981)
+ - Martine fête maman (1982)
+ - Martine en montgolfière (1983)
+ - Martine découvre la musique (1985)
+ - Martine a perdu son chien (1986)
+ - Martine dans la forêt (1987)
+ - Martine et le cadeau d'anniversaire (1988)
+ - Martine a une étrange voisine (1989)
+ - Martine, un mercredi pas comme les autres (1990)
+ - Martine, la nuit de Noël (1991)
+ - Martine va déménager (1992)
+ - Martine se déguise (1993)
+ - Martine et le chaton vagabond (1994)
+ - Martine, il court, il court, le furet ! (1995)
+ - Martine, l'accident (1996)
+ - Martine baby-sitter (1997)
+ - Martine en classe de découverte (1998)
+ - Martine, la leçon de dessin (1999)
+ - Martine au pays des contes (2000)
+ - Martine et les marmitons (2001)
+ - Martine, la surprise (2002)
+ - Martine, l'arche de Noé (2003)
+ - Martine, princesses et chevaliers (2004)
+ - Martine, drôles de fantômes ! (2005)
+ - Martine, un amour de poney (2006)
+ - Martine, j’adore mon frère (2007)
+ - Martine et un chien du tonnerre (2008)
+ - Martine protège la nature (2009)
+ - Martine et le prince mystérieux (2010)
+ - Martine au Louvre (2021)
+ - Martine au château de Versailles (2022)
+ - Martine en Bretagne (2023)
+ - Martine à Paris (2024)
 [Hors série] - Martine au Bon Marché (2001)
 [Hors série] - Martine visite Bruxelles (2011)
 [Hors série] - Martine visite Tournai (2012)
@@ -605,31 +728,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Martine_(s%C3%A9rie)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Martine_(s%C3%A9rie)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Martine_(série)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martine_(s%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Collaboration de Hubert Colson</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le pâtissier-psychanalyste Hubert Colson a publié des recettes de pâtisserie adaptées aux enfants dans deux albums de Martine:
 La Pâtisserie avec Martine, d'après les albums de Gilbert Delahaye et Marcel Marlier ; recettes de Hubert Colson ; illustrées par Nadette Charlet, Casterman, Bruxelles, 2004.
@@ -639,34 +764,72 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Martine_(s%C3%A9rie)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Martine_(s%C3%A9rie)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Martine_(série)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martine_(s%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Série télévisée d'animation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une série d'animation en 3D réalisée par Claude Allix[11] et produite par Les Armateurs, racontant les aventures de Martine et de ses amis, a été lancée le 27 août 2012 sur M6[12], et au Québec à partir du 15 septembre 2012 à Télé-Québec[13].
-Distribution
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une série d'animation en 3D réalisée par Claude Allix et produite par Les Armateurs, racontant les aventures de Martine et de ses amis, a été lancée le 27 août 2012 sur M6, et au Québec à partir du 15 septembre 2012 à Télé-Québec.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Martine_(série)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martine_(s%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Série télévisée d'animation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Fily Keita : Martine
 Hermine Regnaut : Claire
 Magali Rosenzweig : Julie, Marie et Inès
@@ -691,9 +854,44 @@
 Claire Baradat : Virginie
 Brigitte Lecordier : Raphaël
 Pascal Germain : le réalisateur et le père de Rico
- Source et légende : version française (VF) sur RS Doublage[14]
-Saison 1
-La date indique sa première diffusion sur M6.
+ Source et légende : version française (VF) sur RS Doublage
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Martine_(série)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martine_(s%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Série télévisée d'animation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Saison 1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La date indique sa première diffusion sur M6.
 Embrouilles au chocolat (27 août 2012)
 Martine rapporteuse (28 août 2012)
 La Fête des mères (30 août 2012)
@@ -746,8 +944,43 @@
 L'Arbre maudit (23 novembre 2012)
 La Retenue (30 avril 2013)
 Je t'aime moi non plus (2 mai 2013)
-Saison 2
-Diffusée sur M6 à la rentrée de septembre 2016.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Martine_(série)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martine_(s%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Série télévisée d'animation</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Saison 2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diffusée sur M6 à la rentrée de septembre 2016.
 Le Pot de colle
 Cours Pichon, cours !
 Le Bonnet de la honte
@@ -800,9 +1033,84 @@
 La Nouvelle Voix
 Le Bras de la discorde
 Entre deux frères
-Diffusion
-En France, la série est diffusée le lundi, mardi, jeudi et vendredi vers 6 h 45, et le dimanche vers 10 h 20 du 14 octobre 2012 au 23 décembre 2012, dans le programme M6 Kid. La saison 1 se compose de 52 épisodes de 13 minutes. M6 n'a pas toujours diffusé les épisodes dans l'ordre. La série est aussi diffusée sur Disney Junior et sur TV5 Monde , dans le programme Tivi5, les samedis et dimanches vers 9 h 15 (2014).
-Personnages
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Martine_(série)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martine_(s%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Série télévisée d'animation</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Diffusion</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la série est diffusée le lundi, mardi, jeudi et vendredi vers 6 h 45, et le dimanche vers 10 h 20 du 14 octobre 2012 au 23 décembre 2012, dans le programme M6 Kid. La saison 1 se compose de 52 épisodes de 13 minutes. M6 n'a pas toujours diffusé les épisodes dans l'ordre. La série est aussi diffusée sur Disney Junior et sur TV5 Monde , dans le programme Tivi5, les samedis et dimanches vers 9 h 15 (2014).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Martine_(série)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martine_(s%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Série télévisée d'animation</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Diffusion</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Martine : le personnage principal, écolière intelligente, gentille et amie fidèle qui aime user de stratégie pour résoudre les problèmes de ses amies ; mais aussi rusée et n'hésitant pas à mentir pour arriver à ses fins. Dans la saison 2, elle est amoureuse de Rico et on le voit clairement dans certains épisodes .
 Famille de Martine
 Thomas : père de Martine, photographe reporter, souvent absent;
@@ -846,66 +1154,70 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Martine_(s%C3%A9rie)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Martine_(s%C3%A9rie)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Martine_(série)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martine_(s%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Jeux vidéo</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les aventures de Martine sont aussi interactives : deux jeux ont été réalisés par White Birds Productions et édités par Micro Application[15] :
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Les aventures de Martine sont aussi interactives : deux jeux ont été réalisés par White Birds Productions et édités par Micro Application :
 Martine à la ferme (Jeu PC)
 Martine à la montagne (Jeu PC)</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Martine_(s%C3%A9rie)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Martine_(s%C3%A9rie)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Martine_(série)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martine_(s%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Éditions audio</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>À partir de 1994, paraît une collection de 39 cassettes audio, Martine racontée et chantée par Chantal Goya, chez les Éditions Atlas, dont le premier numéro Martine petite maman est certifié disque d'or[16]. Une réédition réduite en CD voit le jour en 2001.
-Puis à partir de 2008 les éditions Frémeaux &amp; Associés et les productions Cristal Records ont entrepris, avec l'autorisation des éditions Casterman, d'adapter la totalité des histoires de la série, sous forme de livres audio dirigé par Éric Debègue, reprenant chacun une adaptation de cinq à sept histoires, narrées par Marie-Christine Barrault et illustrées, musicalement, par un orchestre dirigé par le compositeur Pierre Bertrand[17] :
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>À partir de 1994, paraît une collection de 39 cassettes audio, Martine racontée et chantée par Chantal Goya, chez les Éditions Atlas, dont le premier numéro Martine petite maman est certifié disque d'or. Une réédition réduite en CD voit le jour en 2001.
+Puis à partir de 2008 les éditions Frémeaux &amp; Associés et les productions Cristal Records ont entrepris, avec l'autorisation des éditions Casterman, d'adapter la totalité des histoires de la série, sous forme de livres audio dirigé par Éric Debègue, reprenant chacun une adaptation de cinq à sept histoires, narrées par Marie-Christine Barrault et illustrées, musicalement, par un orchestre dirigé par le compositeur Pierre Bertrand :
 Martine à l'école, suivi de 5 autres histoires, référence FA871, publié le 1er avril 2008,  (EAN 3448960287128), (BNF 41283633). Regroupe les récits suivants : Martine à l'école, Martine au parc, La Leçon de dessin, La Surprise, L'Accident et Martine chez tante Lucie.
 Martine au pays des contes, suivi de 6 autres histoires. Référence : FA872, publié le 30 juin 2008,  (EAN 3448960287227), (BNF 41283660). Regroupe les récits suivants : Martine fait du théâtre, Martine au pays des contes, Martine se déguise, Martine, princesses et chevaliers, Martine et les marmitons, Martine petite maman et Martine et l'arche de Noé.
 Martine, la nuit de Noël, suivi de 5 autres histoires. Référence : FA873, publié le 28 octobre 2008,  (EAN 3448960287326), (BNF 41347003). Regroupe les récits suivants : Martine à la maison, Martine, la nuit de Noël, Martine, le chaton vagabond, Martine a une étrange voisine, Martine dans la forêt et Martine en classe de découverte.
@@ -915,66 +1227,70 @@
 Il court il court le furet, suivi de 4 autres histoires. Référence : FA877, publié le 1er février 2010,  (EAN 3448960287722), (BNF 42223049). Regroupe les récits suivants : Il court il court le furet, Martine fait du camping, Martine et l'âne Cadichon, Martine en montgolfière et Martine fête son anniversaire
 Martine fête son anniversaire, suivi de 4 autres histoires. Référence : FA878, publié le 1er juin 2010,  (EAN 3448960287821), (BNF 42223040). Regroupe les récits suivants : Martine fête son anniversaire, Martine, un amour de poney, Martine et son ami le moineau, Martine en bateau et Martine va déménager.
 Martine, drôles de fantômes !, suivi de 4 autres histoires. Référence : FA879, publié le 11 novembre 2010,  (EAN 3448960287920), (BNF 42282941). Regroupe les récits suivants : Martine, drôles de fantômes !, Martine en voyage, Martine au cirque, Martine a perdu son chien et Martine fait de la voile.
-Martine découvre la musique, suivi de 5 autres histoires. Référence : FA880, publié le 18 juillet 2011[18], références EAN et BNF encore inconnues. Regroupe les récits suivants : Martine découvre la musique, J'adore mon frère, Martine en avion, Martine et les Quatre Saisons et Martine à la fête des fleurs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Martine_(s%C3%A9rie)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Martine_(s%C3%A9rie)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+Martine découvre la musique, suivi de 5 autres histoires. Référence : FA880, publié le 18 juillet 2011, références EAN et BNF encore inconnues. Regroupe les récits suivants : Martine découvre la musique, J'adore mon frère, Martine en avion, Martine et les Quatre Saisons et Martine à la fête des fleurs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Martine_(série)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martine_(s%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Martine Cover Generator</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au mois d'octobre 2007, après les fameux détournements humoristiques de Tremechan, un site web appelé Martine cover generator a été mis en ligne. Il permet aux visiteurs d'appliquer le titre désiré aux couvertures existantes de Martine. Ce site qui n'était au départ qu'une plaisanterie a vu son audience exploser en une semaine[19],[20] grâce au bouche à oreille. Victimes de leur succès, les créateurs du site ont été rapidement obligés de limiter les ajouts à la base de données[21]. Le site a fermé ses portes le 18 novembre 2007[22], à la suite d'un accord à l'amiable avec l'éditeur Casterman qui indiquait avoir reçu des plaintes de parents et craignait par ailleurs de voir ses personnages protégés par le droit d'auteur considérés comme libres de droit et assimilés au domaine public[23]. Le code source du générateur a depuis été rendu public (sous licence WTFPL), permettant la création d'autres sites basés sur le même principe.
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au mois d'octobre 2007, après les fameux détournements humoristiques de Tremechan, un site web appelé Martine cover generator a été mis en ligne. Il permet aux visiteurs d'appliquer le titre désiré aux couvertures existantes de Martine. Ce site qui n'était au départ qu'une plaisanterie a vu son audience exploser en une semaine, grâce au bouche à oreille. Victimes de leur succès, les créateurs du site ont été rapidement obligés de limiter les ajouts à la base de données. Le site a fermé ses portes le 18 novembre 2007, à la suite d'un accord à l'amiable avec l'éditeur Casterman qui indiquait avoir reçu des plaintes de parents et craignait par ailleurs de voir ses personnages protégés par le droit d'auteur considérés comme libres de droit et assimilés au domaine public. Le code source du générateur a depuis été rendu public (sous licence WTFPL), permettant la création d'autres sites basés sur le même principe.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Martine_(s%C3%A9rie)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Martine_(s%C3%A9rie)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Martine_(série)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martine_(s%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Martine dans d'autres langues</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Martine a d'autres prénoms dans les éditions non-francophones :
 albanais : Zana
@@ -1001,7 +1317,7 @@
 malais : Martini
 néerlandais : Tiny
 polonais : Martynka
-portugais : Anita (depuis 1966), Martine (depuis 2015)[24]
+portugais : Anita (depuis 1966), Martine (depuis 2015)
 roumain : Andreea
 russe : Маруся
 serbe : Maja
